--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\@pro.ject\99. private\02. hadong\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C66722-C6A7-40B6-981D-744CC23F404E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8034CA-3C54-4393-AE70-FFDBA0ED3F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="234">
   <si>
     <t>cate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,18 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main_img_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_img_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qr_img_url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>감동화개</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,10 +95,6 @@
   </si>
   <si>
     <t>붓당골차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼태다원</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -155,10 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>호천자가 만든 삼태자를 만날 수 있는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>천상의 이슬농차를 즐길수 있는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -195,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>경남 하동군 화개면 침점2길 29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>경남 하동군 화개면 맥전길 60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,9 +209,6 @@
   <si>
     <t>010-3599-8326</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-3560-2181</t>
   </si>
   <si>
     <t>055-883-1743 / 010-7197-7117</t>
@@ -307,78 +280,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.instagram.com/hdgt_samtae</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.instagram.com/hyoworl</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>img_0_0_0.png</t>
-  </si>
-  <si>
-    <t>img_0_1_0.png</t>
-  </si>
-  <si>
-    <t>img_0_2_0.png</t>
-  </si>
-  <si>
-    <t>img_0_3_0.png</t>
-  </si>
-  <si>
-    <t>img_0_4_0.png</t>
-  </si>
-  <si>
-    <t>img_0_5_0.png</t>
-  </si>
-  <si>
-    <t>img_0_6_0.png</t>
-  </si>
-  <si>
-    <t>img_0_7_0.png</t>
-  </si>
-  <si>
-    <t>img_0_8_0.png</t>
-  </si>
-  <si>
-    <t>img_0_9_0.png</t>
-  </si>
-  <si>
-    <t>img_0_10_0.png</t>
-  </si>
-  <si>
-    <t>img_0_0_1.png</t>
-  </si>
-  <si>
-    <t>img_0_1_1.png</t>
-  </si>
-  <si>
-    <t>img_0_2_1.png</t>
-  </si>
-  <si>
-    <t>img_0_3_1.png</t>
-  </si>
-  <si>
-    <t>img_0_4_1.png</t>
-  </si>
-  <si>
-    <t>img_0_5_1.png</t>
-  </si>
-  <si>
-    <t>img_0_6_1.png</t>
-  </si>
-  <si>
-    <t>img_0_7_1.png</t>
-  </si>
-  <si>
-    <t>img_0_8_1.png</t>
-  </si>
-  <si>
-    <t>img_0_9_1.png</t>
-  </si>
-  <si>
-    <t>img_0_10_1.png</t>
   </si>
   <si>
     <t>따신골 녹차정원</t>
@@ -702,81 +605,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>img_2_0_0.png</t>
-  </si>
-  <si>
-    <t>img_2_1_0.png</t>
-  </si>
-  <si>
-    <t>img_2_2_0.png</t>
-  </si>
-  <si>
-    <t>img_2_3_0.png</t>
-  </si>
-  <si>
-    <t>img_2_4_0.png</t>
-  </si>
-  <si>
-    <t>img_1_0_0.png</t>
-  </si>
-  <si>
-    <t>img_1_1_0.png</t>
-  </si>
-  <si>
-    <t>img_1_2_0.png</t>
-  </si>
-  <si>
-    <t>img_1_3_0.png</t>
-  </si>
-  <si>
-    <t>img_1_4_0.png</t>
-  </si>
-  <si>
-    <t>img_1_5_0.png</t>
-  </si>
-  <si>
-    <t>img_1_6_0.png</t>
-  </si>
-  <si>
-    <t>img_1_7_0.png</t>
-  </si>
-  <si>
-    <t>img_1_8_0.png</t>
-  </si>
-  <si>
-    <t>img_1_9_0.png</t>
-  </si>
-  <si>
-    <t>img_1_0_1.png</t>
-  </si>
-  <si>
-    <t>img_1_1_1.png</t>
-  </si>
-  <si>
-    <t>img_1_2_1.png</t>
-  </si>
-  <si>
-    <t>img_1_3_1.png</t>
-  </si>
-  <si>
-    <t>img_1_4_1.png</t>
-  </si>
-  <si>
-    <t>img_1_5_1.png</t>
-  </si>
-  <si>
-    <t>img_1_6_1.png</t>
-  </si>
-  <si>
-    <t>img_1_7_1.png</t>
-  </si>
-  <si>
-    <t>img_1_8_1.png</t>
-  </si>
-  <si>
-    <t>img_1_9_1.png</t>
-  </si>
-  <si>
     <t>관아수제차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -903,49 +731,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>img_2_0_1.png</t>
-  </si>
-  <si>
-    <t>img_2_1_1.png</t>
-  </si>
-  <si>
-    <t>img_2_2_1.png</t>
-  </si>
-  <si>
-    <t>img_2_3_1.png</t>
-  </si>
-  <si>
-    <t>img_2_4_1.png</t>
-  </si>
-  <si>
-    <t>img_3_0_0.png</t>
-  </si>
-  <si>
-    <t>img_3_1_0.png</t>
-  </si>
-  <si>
-    <t>img_3_2_0.png</t>
-  </si>
-  <si>
-    <t>img_3_3_0.png</t>
-  </si>
-  <si>
-    <t>img_3_4_0.png</t>
-  </si>
-  <si>
-    <t>img_3_0_1.png</t>
-  </si>
-  <si>
-    <t>img_3_1_1.png</t>
-  </si>
-  <si>
-    <t>img_3_2_1.png</t>
-  </si>
-  <si>
-    <t>img_3_3_1.png</t>
-  </si>
-  <si>
-    <t>img_3_4_1.png</t>
+    <t>main_commonfiles/images/img_url</t>
+  </si>
+  <si>
+    <t>sub_commonfiles/images/img_url</t>
+  </si>
+  <si>
+    <t>qr_commonfiles/images/img_url</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_0_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_0_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_1_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_1_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_2_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_2_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_3_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_3_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_4_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_4_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_5_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_5_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_6_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_6_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_7_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_7_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_9_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_9_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_10_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_10_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_0_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_0_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_1_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_1_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_2_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_2_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_3_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_3_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_4_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_4_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_5_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_5_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_6_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_6_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_7_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_7_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_8_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_8_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_9_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_9_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_0_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_0_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_1_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_1_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_2_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_2_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_3_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_3_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_4_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_2_4_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_0_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_0_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_1_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_1_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_2_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_2_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_3_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_3_1.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_4_0.png</t>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_4_1.png</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +990,30 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1171,26 +1166,6 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1205,20 +1180,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:K32" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:K32" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:K31" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}"/>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{04EA54B5-00EE-4A52-9041-57BDDF21D554}" name="cate" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C615EE1B-6C92-4F98-926A-434BE4CDFBC7}" name="code" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{06C9F544-B6D0-4B2E-BCD3-C20E5ADC1E93}" name="name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{33953C46-7C57-4970-82A4-33670841F90A}" name="desc" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_img_url" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_img_url" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_img_url" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{04EA54B5-00EE-4A52-9041-57BDDF21D554}" name="cate" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C615EE1B-6C92-4F98-926A-434BE4CDFBC7}" name="code" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{06C9F544-B6D0-4B2E-BCD3-C20E5ADC1E93}" name="name" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{33953C46-7C57-4970-82A4-33670841F90A}" name="desc" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_commonfiles/images/img_url" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_commonfiles/images/img_url" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_commonfiles/images/img_url" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1541,56 +1516,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28:J32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.640625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.2109375" customWidth="1"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="175.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1601,31 +1581,31 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="70.3" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1636,31 +1616,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1671,31 +1651,31 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1706,31 +1686,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="175.75" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1741,31 +1721,31 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1776,31 +1756,31 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>185</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="158.15" x14ac:dyDescent="0.55000000000000004">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1811,31 +1791,31 @@
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1846,33 +1826,33 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
         <v>0</v>
@@ -1881,33 +1861,33 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -1916,795 +1896,759 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="70.3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="140.6" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="123" x14ac:dyDescent="0.55000000000000004">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="140.6" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="175.75" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="158.15" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>194</v>
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="70.3" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="263.60000000000002" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="140.6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>3</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>217</v>
+        <v>48</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="87.9" x14ac:dyDescent="0.55000000000000004">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
         <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="105.45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K10" r:id="rId1" xr:uid="{0735C1D7-EC2B-4776-8847-1CECC26C277C}"/>
-    <hyperlink ref="K4" r:id="rId2" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
-    <hyperlink ref="K9" r:id="rId3" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
-    <hyperlink ref="K3" r:id="rId5" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
-    <hyperlink ref="K7" r:id="rId6" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
-    <hyperlink ref="K8" r:id="rId7" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
-    <hyperlink ref="K12" r:id="rId8" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
-    <hyperlink ref="K11" r:id="rId9" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
-    <hyperlink ref="K22" r:id="rId10" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
-    <hyperlink ref="K21" r:id="rId11" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
-    <hyperlink ref="K14" r:id="rId12" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
-    <hyperlink ref="K15" r:id="rId13" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
-    <hyperlink ref="K16" r:id="rId14" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
-    <hyperlink ref="K17" r:id="rId15" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
-    <hyperlink ref="K18" r:id="rId16" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
-    <hyperlink ref="K26" r:id="rId17" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
-    <hyperlink ref="K24" r:id="rId18" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
-    <hyperlink ref="K27" r:id="rId19" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
-    <hyperlink ref="K32" r:id="rId20" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
-    <hyperlink ref="K28" r:id="rId21" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
-    <hyperlink ref="K31" r:id="rId22" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
-    <hyperlink ref="K29" r:id="rId23" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
+    <hyperlink ref="K9" r:id="rId2" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
+    <hyperlink ref="K2" r:id="rId3" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
+    <hyperlink ref="K11" r:id="rId7" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
+    <hyperlink ref="K10" r:id="rId8" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
+    <hyperlink ref="K21" r:id="rId9" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
+    <hyperlink ref="K20" r:id="rId10" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
+    <hyperlink ref="K13" r:id="rId11" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
+    <hyperlink ref="K14" r:id="rId12" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
+    <hyperlink ref="K15" r:id="rId13" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
+    <hyperlink ref="K16" r:id="rId14" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
+    <hyperlink ref="K17" r:id="rId15" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
+    <hyperlink ref="K25" r:id="rId16" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
+    <hyperlink ref="K23" r:id="rId17" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
+    <hyperlink ref="K26" r:id="rId18" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
+    <hyperlink ref="K31" r:id="rId19" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
+    <hyperlink ref="K27" r:id="rId20" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
+    <hyperlink ref="K30" r:id="rId21" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
+    <hyperlink ref="K28" r:id="rId22" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\@pro.ject\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8034CA-3C54-4393-AE70-FFDBA0ED3F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3192F779-074D-46CB-B780-D09C6625828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="237">
   <si>
     <t>cate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>차 농가가 운영하는 한옥 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>천상의 이슬농차를 즐길수 있는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -336,10 +332,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>산으로 둘러싸인 작은 마을에 위지한 차농가가 운영하는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자연과 함께하는 연우 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -406,13 +398,6 @@
   </si>
   <si>
     <t>010-9211-0272</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>055-833-3500</t>
-  </si>
-  <si>
-    <t>010-3848-1696</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -532,10 +517,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아름답고 편안한 티타임을 즐길 수 있는다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수제차 전문 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -609,10 +590,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도재명차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>수연제다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -630,10 +607,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전통 덖음방식의 차를 만날수있는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가바(GABA)차와 6대 차류를 맛 볼 수 있는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -683,19 +656,6 @@
   </si>
   <si>
     <t>010-6248-5501</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티클래스, (다담 티코스)
-(예약제) 60~90분 소요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차담, 티클래스, 다숙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>티클래스, 농촌교육농장(예약제)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -918,6 +878,58 @@
   </si>
   <si>
     <t>commonfiles/images/img_3_4_1.png</t>
+  </si>
+  <si>
+    <t>한국 식품 제조 품목 제1호 녹차 생산 다실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상의 이슬농차를 즐길 수 있는 다실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산으로 둘러싸인 작은 마을에 위치한 차농가가 운영하는 다실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아름답고 편안한 티타임을 즐길 수 있는 다실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>055-883-3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3848-1696, 055-883-1696</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍계사 문의</t>
+  </si>
+  <si>
+    <t>쌍계사 문의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도제명차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전통 덖음방식의 차를 만날 수있는 다실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티클래스, 다숙, 농촌교육농장(예약제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차담, 다숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다숙, 티클래스, (다담 티코스)
+(예약제) 60~90분 소요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -991,29 +1003,6 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1166,6 +1155,29 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1180,20 +1192,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K31" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}"/>
   <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{04EA54B5-00EE-4A52-9041-57BDDF21D554}" name="cate" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C615EE1B-6C92-4F98-926A-434BE4CDFBC7}" name="code" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{06C9F544-B6D0-4B2E-BCD3-C20E5ADC1E93}" name="name" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{33953C46-7C57-4970-82A4-33670841F90A}" name="desc" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_commonfiles/images/img_url" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_commonfiles/images/img_url" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_commonfiles/images/img_url" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{04EA54B5-00EE-4A52-9041-57BDDF21D554}" name="cate" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C615EE1B-6C92-4F98-926A-434BE4CDFBC7}" name="code" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{06C9F544-B6D0-4B2E-BCD3-C20E5ADC1E93}" name="name" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{33953C46-7C57-4970-82A4-33670841F90A}" name="desc" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_commonfiles/images/img_url" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_commonfiles/images/img_url" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_commonfiles/images/img_url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1518,26 +1530,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.2109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.2109375" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1561,16 +1573,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="165" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1587,25 +1599,25 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1622,25 +1634,25 @@
         <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1657,25 +1669,25 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1692,25 +1704,25 @@
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="165" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1727,25 +1739,25 @@
         <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1762,25 +1774,25 @@
         <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1797,25 +1809,25 @@
         <v>23</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1832,25 +1844,25 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1864,28 +1876,28 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1899,28 +1911,28 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1931,31 +1943,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1966,31 +1978,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>228</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2001,31 +2013,31 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>94</v>
+        <v>229</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2036,31 +2048,31 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2071,31 +2083,31 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2106,31 +2118,31 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2141,31 +2153,31 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="165" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2176,31 +2188,31 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="148.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2211,31 +2223,31 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2246,31 +2258,31 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2281,31 +2293,31 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2316,31 +2328,31 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2351,31 +2363,31 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="H24" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2386,31 +2398,31 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="247.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2421,31 +2433,31 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="132" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2456,31 +2468,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2491,31 +2503,31 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>141</v>
+        <v>232</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>146</v>
+        <v>233</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2526,31 +2538,31 @@
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2561,31 +2573,31 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2596,28 +2608,28 @@
         <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\@pro.ject\@@Git\hadong\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3192F779-074D-46CB-B780-D09C6625828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379BDC9-D840-4F71-B16A-8554B4B49316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -691,15 +691,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>main_commonfiles/images/img_url</t>
-  </si>
-  <si>
-    <t>sub_commonfiles/images/img_url</t>
-  </si>
-  <si>
-    <t>qr_commonfiles/images/img_url</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_0_0_0.png</t>
   </si>
   <si>
@@ -712,9 +703,6 @@
     <t>commonfiles/images/img_0_1_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_0_2_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_0_2_1.png</t>
   </si>
   <si>
@@ -730,9 +718,6 @@
     <t>commonfiles/images/img_0_4_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_0_5_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_0_5_1.png</t>
   </si>
   <si>
@@ -766,30 +751,18 @@
     <t>commonfiles/images/img_1_0_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_1_1_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_1_1_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_1_2_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_1_2_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_1_3_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_1_3_1.png</t>
   </si>
   <si>
     <t>commonfiles/images/img_1_4_0.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_1_4_1.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_1_5_0.png</t>
   </si>
   <si>
@@ -802,21 +775,12 @@
     <t>commonfiles/images/img_1_6_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_1_7_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_1_7_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_1_8_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_1_8_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_1_9_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_1_9_1.png</t>
   </si>
   <si>
@@ -850,9 +814,6 @@
     <t>commonfiles/images/img_2_4_1.png</t>
   </si>
   <si>
-    <t>commonfiles/images/img_3_0_0.png</t>
-  </si>
-  <si>
     <t>commonfiles/images/img_3_0_1.png</t>
   </si>
   <si>
@@ -866,9 +827,6 @@
   </si>
   <si>
     <t>commonfiles/images/img_3_2_1.png</t>
-  </si>
-  <si>
-    <t>commonfiles/images/img_3_3_0.png</t>
   </si>
   <si>
     <t>commonfiles/images/img_3_3_1.png</t>
@@ -911,10 +869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>도제명차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전통 덖음방식의 차를 만날 수있는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -930,6 +884,66 @@
     <t>다숙, 티클래스, (다담 티코스)
 (예약제) 60~90분 소요</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도재명차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>main_img_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_img_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qr_img_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_0_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_2_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_2_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_1_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_3_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_0_5_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_4_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_3_3_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_7_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_8_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonfiles/images/img_1_9_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1194,6 +1208,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K31" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
+    <sortCondition ref="D1:D31"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{04EA54B5-00EE-4A52-9041-57BDDF21D554}" name="cate" dataDxfId="9"/>
@@ -1203,9 +1220,9 @@
     <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="4"/>
     <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_commonfiles/images/img_url" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_commonfiles/images/img_url" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_commonfiles/images/img_url" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_img_url" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_img_url" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_img_url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1530,24 +1547,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="36.640625" style="2" customWidth="1"/>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.2109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.2109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="31.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>159</v>
       </c>
@@ -1573,1090 +1591,1090 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
-        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
-        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
-        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
+      <c r="K18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>17</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
-        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>231</v>
+        <v>94</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>230</v>
+        <v>67</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
       <c r="C23" s="2">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
       <c r="C24" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="70.3" x14ac:dyDescent="0.55000000000000004">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
         <v>4</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="I28" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
+    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="52.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="35.15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
       <c r="C31" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>223</v>
+        <v>53</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
-    <hyperlink ref="K9" r:id="rId2" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
-    <hyperlink ref="K2" r:id="rId3" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
-    <hyperlink ref="K8" r:id="rId6" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
-    <hyperlink ref="K11" r:id="rId7" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
-    <hyperlink ref="K10" r:id="rId8" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
-    <hyperlink ref="K21" r:id="rId9" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
-    <hyperlink ref="K20" r:id="rId10" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
-    <hyperlink ref="K13" r:id="rId11" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
-    <hyperlink ref="K14" r:id="rId12" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
-    <hyperlink ref="K15" r:id="rId13" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
-    <hyperlink ref="K16" r:id="rId14" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
-    <hyperlink ref="K17" r:id="rId15" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
-    <hyperlink ref="K25" r:id="rId16" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
-    <hyperlink ref="K23" r:id="rId17" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
-    <hyperlink ref="K26" r:id="rId18" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
-    <hyperlink ref="K31" r:id="rId19" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
-    <hyperlink ref="K27" r:id="rId20" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
-    <hyperlink ref="K30" r:id="rId21" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
-    <hyperlink ref="K28" r:id="rId22" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
+    <hyperlink ref="K7" r:id="rId1" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
+    <hyperlink ref="K16" r:id="rId2" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
+    <hyperlink ref="K15" r:id="rId5" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
+    <hyperlink ref="K13" r:id="rId6" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
+    <hyperlink ref="K31" r:id="rId7" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
+    <hyperlink ref="K23" r:id="rId8" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
+    <hyperlink ref="K30" r:id="rId9" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
+    <hyperlink ref="K29" r:id="rId10" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
+    <hyperlink ref="K11" r:id="rId11" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
+    <hyperlink ref="K10" r:id="rId12" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
+    <hyperlink ref="K12" r:id="rId13" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
+    <hyperlink ref="K20" r:id="rId14" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
+    <hyperlink ref="K21" r:id="rId15" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
+    <hyperlink ref="K27" r:id="rId16" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
+    <hyperlink ref="K28" r:id="rId18" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
+    <hyperlink ref="K25" r:id="rId19" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
+    <hyperlink ref="K5" r:id="rId20" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
+    <hyperlink ref="K22" r:id="rId21" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
+    <hyperlink ref="K8" r:id="rId22" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0379BDC9-D840-4F71-B16A-8554B4B49316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419A038-ACE8-42C5-9F1B-7C7A3B4DB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
   <si>
     <t>cate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>효월수제차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100년 세월의 작은 나무집에서 한국차의 역사를 느낄 수 있는 차 농가가 운영하는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -320,40 +316,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>섬진강 뷰를 즐기며  소나무와 녹차가 어우러진 곳에서의 건강한 티 캠핑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하동을 대표하는 펑지다원으로 매암차박물관이 있는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>창 너머 야생차밭이 펼져지는 전형적인 차 농가 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자연과 함께하는 연우 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하동 대표 다원과 계곡이 파노라마처럼 펼쳐지는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>하동군 경관차밭 관광자원으로 자연 속 야외에서 차를 마실 수 있는 곳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신라 흥덕왕 3년(828년) 대렴공이 차씨를 들여와 우리나라에서 처음으로 차나무를 심은 곳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하동을 대표하는 다원 중 하나로
-'차의 정원’으로 유명한 다원이 있는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>차밭 위 지혜의 숲속에 자리잡은 야외 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -615,10 +582,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대한민국식품명인 제91호 황인수 명인이 운영하는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>경남 하동군 화개면 목압길 24-2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -858,17 +821,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010-3848-1696, 055-883-1696</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍계사 문의</t>
-  </si>
-  <si>
-    <t>쌍계사 문의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전통 덖음방식의 차를 만날 수있는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -943,6 +895,60 @@
   </si>
   <si>
     <t>commonfiles/images/img_1_9_0.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3848-1696 / 055-883-1696</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬진강 뷰를 즐기며  소나무와 녹차가 어우러진 곳에서의 건강한 티 캠핑 (2023년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연과 함께하는 연우 다실 (2023년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국식품명인 제91호 황인수 명인이 운영하는 다실 (2023년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하동을 대표하는 다원 중 하나로
+'차의 정원’으로 유명한 다원이 있는 다실 (2023년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차밭 위 지혜의 숲속에 자리잡은 야외 다실 (2023년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100년 세월의 작은 나무집에서 한국차의 역사를 느낄 수 있는 차 농가가 운영하는 다실 (2023년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하동을 대표하는 펑지다원으로 매암차박물관이 있는 다실 (2024년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하동 대표 다원과 계곡이 파노라마처럼 펼쳐지는 다실 (2024년 선정 하동군 핫플레이스)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>티오마카세 (예약제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신라 흥덕왕 3년(828년) 대렴공이 차씨를 들여와 우리나라에서 처음으로 차나무를 심은 곳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍계사 차시배지는 828년(신라 흥덕왕 3년) 대렴공이 당나라에서 차나무의 씨앗을 가져와 왕명으로 지리산 일대에 처음 심은 곳이다. 그 후 진감선사(眞鑑禪師)가 차나무를 번식시켜 차가 본격적으로 보급되었다고 한다.
+1983년 경상남도 기념물 제61호로 지정되었고, 기념석과 대렴공 차시배 추원비, 진감선사 차시배 추앙비 및 고산선사의 음다송 조형물이 세워져 우리나라 차의 본고장임을 인증하고 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1022,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1206,23 +1232,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:K31" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K31" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:L31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L31" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L31">
     <sortCondition ref="D1:D31"/>
   </sortState>
-  <tableColumns count="11">
-    <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{04EA54B5-00EE-4A52-9041-57BDDF21D554}" name="cate" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C615EE1B-6C92-4F98-926A-434BE4CDFBC7}" name="code" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{06C9F544-B6D0-4B2E-BCD3-C20E5ADC1E93}" name="name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{33953C46-7C57-4970-82A4-33670841F90A}" name="desc" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_img_url" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_img_url" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_img_url" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{04EA54B5-00EE-4A52-9041-57BDDF21D554}" name="cate" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C615EE1B-6C92-4F98-926A-434BE4CDFBC7}" name="code" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{06C9F544-B6D0-4B2E-BCD3-C20E5ADC1E93}" name="name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{33953C46-7C57-4970-82A4-33670841F90A}" name="desc" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{812B3FB4-A6ED-48B9-8964-39734AC943C2}" name="detail" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_img_url" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_img_url" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_img_url" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1545,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1558,16 +1585,16 @@
     <col min="5" max="5" width="36.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="31.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="31.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.25" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1591,16 +1618,19 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>21</v>
       </c>
@@ -1611,31 +1641,34 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>192</v>
+        <v>49</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1649,28 +1682,31 @@
         <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1684,28 +1720,31 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>26</v>
       </c>
@@ -1716,31 +1755,34 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1754,28 +1796,31 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1789,28 +1834,31 @@
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>27</v>
       </c>
@@ -1821,31 +1869,34 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>203</v>
+        <v>48</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>11</v>
       </c>
@@ -1856,31 +1907,34 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -1891,31 +1945,34 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1926,31 +1983,34 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>14</v>
       </c>
@@ -1961,31 +2021,34 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -1999,28 +2062,31 @@
         <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -2034,28 +2100,31 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="L14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -2069,28 +2138,31 @@
         <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -2104,28 +2176,31 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -2136,31 +2211,34 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>22</v>
       </c>
@@ -2171,31 +2249,34 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>194</v>
+        <v>151</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2206,31 +2287,34 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -2241,31 +2325,34 @@
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -2276,31 +2363,34 @@
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>233</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>29</v>
       </c>
@@ -2311,31 +2401,34 @@
         <v>2</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -2349,28 +2442,31 @@
         <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -2381,31 +2477,34 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>217</v>
+        <v>151</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>30</v>
       </c>
@@ -2416,31 +2515,34 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>208</v>
+        <v>144</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2451,31 +2553,34 @@
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>196</v>
+      <c r="I26" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2486,31 +2591,34 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>198</v>
+        <v>234</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2521,31 +2629,34 @@
         <v>4</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>200</v>
+        <v>124</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>19</v>
       </c>
@@ -2556,31 +2667,34 @@
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>235</v>
+        <v>151</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>20</v>
       </c>
@@ -2591,31 +2705,34 @@
         <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
+        <v>230</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10</v>
       </c>
@@ -2629,52 +2746,55 @@
         <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>60</v>
+        <v>169</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K7" r:id="rId1" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
-    <hyperlink ref="K16" r:id="rId2" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
-    <hyperlink ref="K3" r:id="rId3" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
-    <hyperlink ref="K4" r:id="rId4" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
-    <hyperlink ref="K15" r:id="rId5" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
-    <hyperlink ref="K13" r:id="rId6" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
-    <hyperlink ref="K31" r:id="rId7" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
-    <hyperlink ref="K23" r:id="rId8" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
-    <hyperlink ref="K30" r:id="rId9" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
-    <hyperlink ref="K29" r:id="rId10" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
-    <hyperlink ref="K11" r:id="rId11" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
-    <hyperlink ref="K10" r:id="rId12" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
-    <hyperlink ref="K12" r:id="rId13" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
-    <hyperlink ref="K20" r:id="rId14" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
-    <hyperlink ref="K21" r:id="rId15" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
-    <hyperlink ref="K27" r:id="rId16" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
-    <hyperlink ref="K18" r:id="rId17" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
-    <hyperlink ref="K28" r:id="rId18" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
-    <hyperlink ref="K25" r:id="rId19" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
-    <hyperlink ref="K5" r:id="rId20" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
-    <hyperlink ref="K22" r:id="rId21" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
-    <hyperlink ref="K8" r:id="rId22" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
+    <hyperlink ref="L7" r:id="rId1" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
+    <hyperlink ref="L16" r:id="rId2" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
+    <hyperlink ref="L4" r:id="rId4" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
+    <hyperlink ref="L15" r:id="rId5" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
+    <hyperlink ref="L13" r:id="rId6" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
+    <hyperlink ref="L31" r:id="rId7" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
+    <hyperlink ref="L23" r:id="rId8" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
+    <hyperlink ref="L30" r:id="rId9" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
+    <hyperlink ref="L29" r:id="rId10" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
+    <hyperlink ref="L11" r:id="rId11" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
+    <hyperlink ref="L10" r:id="rId12" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
+    <hyperlink ref="L12" r:id="rId13" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
+    <hyperlink ref="L20" r:id="rId14" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
+    <hyperlink ref="L21" r:id="rId15" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
+    <hyperlink ref="L27" r:id="rId16" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
+    <hyperlink ref="L18" r:id="rId17" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
+    <hyperlink ref="L28" r:id="rId18" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
+    <hyperlink ref="L25" r:id="rId19" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
+    <hyperlink ref="L5" r:id="rId20" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
+    <hyperlink ref="L22" r:id="rId21" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
+    <hyperlink ref="L8" r:id="rId22" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5419A038-ACE8-42C5-9F1B-7C7A3B4DB7C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF26DA9-79E2-4D7A-81CC-B80CCEAFE1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
@@ -1044,6 +1044,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1061,12 +1067,6 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1235,7 +1235,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}" name="표1" displayName="표1" ref="A1:L31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L31" xr:uid="{6FE592AE-A78A-4AE0-8E41-F87C64FD4F62}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L31">
-    <sortCondition ref="D1:D31"/>
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="11" xr3:uid="{E48A933F-D2D9-4F9B-AA06-A5C05B20EF82}" name="id" dataDxfId="11"/>
@@ -1246,10 +1246,10 @@
     <tableColumn id="5" xr3:uid="{B6BDB3D3-41B7-4D50-954A-FCCCCD2F1B08}" name="address" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{187CAB06-7B7F-44B1-B9D1-72B4CCB0EAE1}" name="tel" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{D8FCB89D-7F6A-43D7-8C51-34385D182861}" name="programs" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{812B3FB4-A6ED-48B9-8964-39734AC943C2}" name="detail" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_img_url" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_img_url" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_img_url" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{812B3FB4-A6ED-48B9-8964-39734AC943C2}" name="detail" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{20E5A673-15AF-4A8B-9B30-D0F050E25F12}" name="main_img_url" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{D3FE5BD7-4851-41A7-B279-B3140B178C4A}" name="sub_img_url" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{99002576-DA4A-4F77-B12D-4F9C573B3907}" name="qr_img_url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1630,179 +1630,179 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>184</v>
+      <c r="J2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>231</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>154</v>
+        <v>215</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>193</v>
+      <c r="J5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>47</v>
@@ -1811,10 +1811,10 @@
         <v>151</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>151</v>
@@ -1822,979 +1822,979 @@
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>210</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>206</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>135</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>195</v>
+      <c r="J8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>205</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>5</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2">
-        <v>7</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>207</v>
+        <v>94</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>197</v>
+      <c r="J17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>186</v>
+      <c r="J18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="198" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>167</v>
+      <c r="J23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="198" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>180</v>
+        <v>151</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
       <c r="C26" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="66" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
       <c r="C28" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="2">
-        <v>8</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>95</v>
+        <v>207</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>181</v>
+      <c r="J29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>182</v>
+      <c r="J30" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>169</v>
+      <c r="J31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>59</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L7" r:id="rId1" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
-    <hyperlink ref="L16" r:id="rId2" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
-    <hyperlink ref="L3" r:id="rId3" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
-    <hyperlink ref="L4" r:id="rId4" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
-    <hyperlink ref="L15" r:id="rId5" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
-    <hyperlink ref="L13" r:id="rId6" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
-    <hyperlink ref="L31" r:id="rId7" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
-    <hyperlink ref="L23" r:id="rId8" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
-    <hyperlink ref="L30" r:id="rId9" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
-    <hyperlink ref="L29" r:id="rId10" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
-    <hyperlink ref="L11" r:id="rId11" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
-    <hyperlink ref="L10" r:id="rId12" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
-    <hyperlink ref="L12" r:id="rId13" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
-    <hyperlink ref="L20" r:id="rId14" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
-    <hyperlink ref="L21" r:id="rId15" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
-    <hyperlink ref="L27" r:id="rId16" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
-    <hyperlink ref="L18" r:id="rId17" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
-    <hyperlink ref="L28" r:id="rId18" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
-    <hyperlink ref="L25" r:id="rId19" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
-    <hyperlink ref="L5" r:id="rId20" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
-    <hyperlink ref="L22" r:id="rId21" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
-    <hyperlink ref="L8" r:id="rId22" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{310640AB-4C76-466C-A59E-4A0A71663DA2}"/>
+    <hyperlink ref="L9" r:id="rId2" xr:uid="{E95FAEE9-4900-4F4E-9B6F-110146E1CC89}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{6E213180-B8F5-45EC-991C-B78363656157}"/>
+    <hyperlink ref="L3" r:id="rId4" xr:uid="{24DCD48A-1673-49E5-A538-CAC27630CBD5}"/>
+    <hyperlink ref="L7" r:id="rId5" xr:uid="{80671CD0-28B8-4C13-8C53-4DBC2911442B}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{F21A6CC9-E369-4D6B-98A7-414758616793}"/>
+    <hyperlink ref="L11" r:id="rId7" xr:uid="{DF6F7467-7FF1-42B7-9BD0-83F39FC0B7CE}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{4BA130A1-BD44-448E-8662-AD3707526B96}"/>
+    <hyperlink ref="L21" r:id="rId9" xr:uid="{76EC483F-0BE0-4EF5-A307-BC5FEB97946D}"/>
+    <hyperlink ref="L20" r:id="rId10" xr:uid="{CA142DAA-1B8E-4BDD-95FD-7D073F4477CE}"/>
+    <hyperlink ref="L13" r:id="rId11" xr:uid="{DDB63692-1644-4699-BC02-F2F8A84EAB0E}"/>
+    <hyperlink ref="L14" r:id="rId12" xr:uid="{644A3C8C-BE77-491C-AC07-967D5B88359B}"/>
+    <hyperlink ref="L15" r:id="rId13" xr:uid="{7ECD170A-480D-40D4-AAD8-9D5CF1ED1C54}"/>
+    <hyperlink ref="L16" r:id="rId14" xr:uid="{C649AFFF-12C3-4BEA-9EEC-D040B6C8AB9E}"/>
+    <hyperlink ref="L17" r:id="rId15" xr:uid="{ADE97878-ACA5-4F85-949C-F009D57EB901}"/>
+    <hyperlink ref="L25" r:id="rId16" xr:uid="{ED8D4FF6-72D4-4385-9AD6-31FFBC618A27}"/>
+    <hyperlink ref="L23" r:id="rId17" xr:uid="{47C5264F-71B6-485A-AB37-F4FB852F5847}"/>
+    <hyperlink ref="L26" r:id="rId18" xr:uid="{657EDECC-0B9E-4002-836F-391E04270064}"/>
+    <hyperlink ref="L31" r:id="rId19" xr:uid="{C7EF1272-B5DD-41C1-98AD-D22C9ABD384A}"/>
+    <hyperlink ref="L27" r:id="rId20" xr:uid="{7B12F10D-8A4F-42FD-B00B-B7945EBDD568}"/>
+    <hyperlink ref="L30" r:id="rId21" display="https://www.instagram.com/isuyeongim" xr:uid="{8F05F033-8A35-4BC7-9EB8-F04402C98EE8}"/>
+    <hyperlink ref="L28" r:id="rId22" xr:uid="{27A7D83B-D2B5-4778-AFD1-B617B7C56EE1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF26DA9-79E2-4D7A-81CC-B80CCEAFE1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E2783-DA81-4887-BEEC-E75A34E02E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="237">
   <si>
     <t>cate</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,10 +228,6 @@
   </si>
   <si>
     <t>차담, 티클래스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>카다로그에도 없음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1574,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1594,7 +1590,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1618,16 +1614,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1644,7 +1640,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1656,16 +1652,16 @@
         <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1694,16 +1690,16 @@
         <v>45</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1732,16 +1728,16 @@
         <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1770,16 +1766,16 @@
         <v>47</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1808,16 +1804,16 @@
         <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1846,16 +1842,16 @@
         <v>48</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1881,19 +1877,19 @@
         <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1919,19 +1915,19 @@
         <v>41</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>165</v>
-      </c>
       <c r="L9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1948,7 +1944,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
@@ -1957,19 +1953,19 @@
         <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="L10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1986,7 +1982,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
@@ -1995,19 +1991,19 @@
         <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2021,31 +2017,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2059,31 +2055,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2097,31 +2093,31 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2135,31 +2131,31 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2173,31 +2169,31 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2211,31 +2207,31 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2249,31 +2245,31 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="198" x14ac:dyDescent="0.3">
@@ -2287,31 +2283,31 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2325,31 +2321,31 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2363,31 +2359,31 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2401,31 +2397,31 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2439,31 +2435,31 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="L23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2477,31 +2473,31 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2515,31 +2511,31 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="L25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="66" x14ac:dyDescent="0.3">
@@ -2553,31 +2549,31 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2591,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2629,31 +2625,31 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>48</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2667,31 +2663,31 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2705,31 +2701,31 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2743,31 +2739,31 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E2783-DA81-4887-BEEC-E75A34E02E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDE33F8-6EE9-4AC1-AD59-03B668E927B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
@@ -118,11 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1200년의 역사를 이어온 시배지차(녹차)와 시배지발효차를 
-만나볼 수 있는 유일한 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>섬진강이 내려다보이는 차농가가 운영하는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -529,12 +524,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>티클래스, 티코스 운영
-(예약제, 당일 전화예약
-가능, 최대 8인)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>하동 대표 식음료 판매
 티클래스, 야외족욕 체험, 
 티 캠핑(차+다식)</t>
@@ -946,6 +935,15 @@
     <t>쌍계사 차시배지는 828년(신라 흥덕왕 3년) 대렴공이 당나라에서 차나무의 씨앗을 가져와 왕명으로 지리산 일대에 처음 심은 곳이다. 그 후 진감선사(眞鑑禪師)가 차나무를 번식시켜 차가 본격적으로 보급되었다고 한다.
 1983년 경상남도 기념물 제61호로 지정되었고, 기념석과 대렴공 차시배 추원비, 진감선사 차시배 추앙비 및 고산선사의 음다송 조형물이 세워져 우리나라 차의 본고장임을 인증하고 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티클래스, 티코스 운영
+(예약제, 당일 전화예약 가능, 최대 8인)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200년의 역사를 이어온 시배지차(녹차)와 시배지발효차를 만나볼 수 있는 유일한 다실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1570,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1590,7 +1588,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1614,16 +1612,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1640,28 +1638,28 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1681,25 +1679,25 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1719,25 +1717,25 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1757,25 +1755,25 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1792,28 +1790,28 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>236</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1830,28 +1828,28 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1868,28 +1866,28 @@
         <v>13</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1906,28 +1904,28 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1944,28 +1942,28 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1982,28 +1980,28 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2017,31 +2015,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2055,31 +2053,31 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2093,31 +2091,31 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2131,31 +2129,31 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2169,31 +2167,31 @@
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2207,31 +2205,31 @@
         <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2245,31 +2243,31 @@
         <v>6</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="198" x14ac:dyDescent="0.3">
@@ -2283,31 +2281,31 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2321,31 +2319,31 @@
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2359,31 +2357,31 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2397,31 +2395,31 @@
         <v>5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2435,31 +2433,31 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2473,31 +2471,31 @@
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2511,31 +2509,31 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="66" x14ac:dyDescent="0.3">
@@ -2549,31 +2547,31 @@
         <v>4</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2587,31 +2585,31 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2625,31 +2623,31 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2663,31 +2661,31 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2701,31 +2699,31 @@
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2739,31 +2737,31 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/docs/하동_json.xlsx
+++ b/docs/하동_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mytea\Desktop\@@pro.ject@@\@@Git\hadong\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDE33F8-6EE9-4AC1-AD59-03B668E927B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0986AD28-E7BF-4CDA-A0A7-879A59FA8C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D6E6DB1-97DA-4D8B-90C9-4F98D8D4B809}"/>
   </bookViews>
@@ -554,11 +554,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>야생차밭에서 재배한 찻잎으로 만든
-수제 덖음 차를 경험할 수 있는 다실</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가바(GABA)차와 6대 차류를 맛 볼 수 있는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -943,6 +938,10 @@
   </si>
   <si>
     <t>1200년의 역사를 이어온 시배지차(녹차)와 시배지발효차를 만나볼 수 있는 유일한 다실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야생차밭에서 재배한 찻잎으로 만든 수제 덖음 차를 경험할 수 있는 다실</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1568,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1B33A4-2555-4749-AE6B-0F2946674EDF}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1587,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1612,16 +1611,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1638,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>23</v>
@@ -1650,13 +1649,13 @@
         <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>51</v>
@@ -1688,13 +1687,13 @@
         <v>44</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>52</v>
@@ -1726,13 +1725,13 @@
         <v>45</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>53</v>
@@ -1764,16 +1763,16 @@
         <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1790,7 +1789,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
@@ -1802,16 +1801,16 @@
         <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -1840,13 +1839,13 @@
         <v>47</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>54</v>
@@ -1875,16 +1874,16 @@
         <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>55</v>
@@ -1916,13 +1915,13 @@
         <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>56</v>
@@ -1942,7 +1941,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>31</v>
@@ -1954,13 +1953,13 @@
         <v>49</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>51</v>
@@ -1980,7 +1979,7 @@
         <v>16</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
@@ -1992,13 +1991,13 @@
         <v>50</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>57</v>
@@ -2018,7 +2017,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>70</v>
@@ -2030,16 +2029,16 @@
         <v>87</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2056,25 +2055,25 @@
         <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>95</v>
@@ -2100,19 +2099,19 @@
         <v>72</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>96</v>
@@ -2132,7 +2131,7 @@
         <v>61</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>73</v>
@@ -2144,13 +2143,13 @@
         <v>90</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>97</v>
@@ -2170,7 +2169,7 @@
         <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>74</v>
@@ -2182,13 +2181,13 @@
         <v>91</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>98</v>
@@ -2208,7 +2207,7 @@
         <v>63</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>75</v>
@@ -2220,13 +2219,13 @@
         <v>92</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>99</v>
@@ -2258,16 +2257,16 @@
         <v>64</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="198" x14ac:dyDescent="0.3">
@@ -2284,28 +2283,28 @@
         <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2322,7 +2321,7 @@
         <v>66</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>78</v>
@@ -2334,13 +2333,13 @@
         <v>93</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>100</v>
@@ -2360,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>79</v>
@@ -2372,13 +2371,13 @@
         <v>94</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>101</v>
@@ -2407,19 +2406,19 @@
         <v>116</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="L22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2445,16 +2444,16 @@
         <v>117</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>122</v>
@@ -2474,7 +2473,7 @@
         <v>104</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>113</v>
@@ -2483,19 +2482,19 @@
         <v>118</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="L24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2521,16 +2520,16 @@
         <v>119</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>123</v>
@@ -2562,13 +2561,13 @@
         <v>121</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>123</v>
@@ -2588,28 +2587,28 @@
         <v>124</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2623,31 +2622,31 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2664,28 +2663,28 @@
         <v>125</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="L29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="33" x14ac:dyDescent="0.3">
@@ -2702,28 +2701,28 @@
         <v>126</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -2740,28 +2739,28 @@
         <v>127</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="L31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
